--- a/R5-ResearchStudy-element-map-to-R4.xlsx
+++ b/R5-ResearchStudy-element-map-to-R4.xlsx
@@ -10,12 +10,13 @@
     <sheet name="Mapping Table 0" r:id="rId4" sheetId="2"/>
     <sheet name="Mapping Table 1" r:id="rId5" sheetId="3"/>
     <sheet name="Mapping Table 2" r:id="rId6" sheetId="4"/>
+    <sheet name="Mapping Table 3" r:id="rId7" sheetId="5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="171">
   <si>
     <t>Property</t>
   </si>
@@ -62,15 +63,12 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:26.1571442-06:00</t>
+    <t>2026-02-21T13:36:58.9123839-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>FHIR Infrastructure</t>
-  </si>
-  <si>
     <t>Contact</t>
   </si>
   <si>
@@ -344,217 +342,154 @@
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.label</t>
   </si>
   <si>
+    <t>ResearchStudy.date</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.date</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.status</t>
+  </si>
+  <si>
+    <t>ResearchStudy.studyDesign</t>
+  </si>
+  <si>
+    <t>studyDesign</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.studyDesign</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.focus</t>
+  </si>
+  <si>
+    <t>ResearchStudy.descriptionSummary</t>
+  </si>
+  <si>
+    <t>descriptionSummary</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.descriptionSummary</t>
+  </si>
+  <si>
+    <t>ResearchStudy.classifier</t>
+  </si>
+  <si>
+    <t>classifier</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.classifier</t>
+  </si>
+  <si>
+    <t>ResearchStudy.associatedParty</t>
+  </si>
+  <si>
+    <t>associatedParty</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.associatedParty</t>
+  </si>
+  <si>
+    <t>ResearchStudy.progressStatus</t>
+  </si>
+  <si>
+    <t>progressStatus</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.progressStatus</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.recruitment</t>
+  </si>
+  <si>
+    <t>ResearchStudy.comparisonGroup.linkId</t>
+  </si>
+  <si>
+    <t>linkId</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.comparisonGroup.linkId</t>
+  </si>
+  <si>
+    <t>ResearchStudy.objective.description</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.objective.description</t>
+  </si>
+  <si>
+    <t>ResearchStudy.outcomeMeasure</t>
+  </si>
+  <si>
+    <t>outcomeMeasure</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.outcomeMeasure</t>
+  </si>
+  <si>
     <t>ResearchStudy.label.type</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.label.type</t>
-  </si>
-  <si>
     <t>ResearchStudy.label.value</t>
   </si>
   <si>
     <t>value</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.label.value</t>
-  </si>
-  <si>
-    <t>ResearchStudy.date</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.date</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.status</t>
-  </si>
-  <si>
-    <t>ResearchStudy.studyDesign</t>
-  </si>
-  <si>
-    <t>studyDesign</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.studyDesign</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.focus</t>
-  </si>
-  <si>
-    <t>ResearchStudy.descriptionSummary</t>
-  </si>
-  <si>
-    <t>descriptionSummary</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.descriptionSummary</t>
-  </si>
-  <si>
-    <t>ResearchStudy.classifier</t>
-  </si>
-  <si>
-    <t>classifier</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.classifier</t>
-  </si>
-  <si>
-    <t>ResearchStudy.associatedParty</t>
-  </si>
-  <si>
-    <t>associatedParty</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.associatedParty</t>
-  </si>
-  <si>
     <t>ResearchStudy.associatedParty.name</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.associatedParty.name</t>
-  </si>
-  <si>
     <t>ResearchStudy.associatedParty.role</t>
   </si>
   <si>
     <t>role</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.associatedParty.role</t>
-  </si>
-  <si>
     <t>ResearchStudy.associatedParty.period</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.associatedParty.period</t>
-  </si>
-  <si>
     <t>ResearchStudy.associatedParty.classifier</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.associatedParty.classifier</t>
-  </si>
-  <si>
-    <t>ResearchStudy.progressStatus</t>
-  </si>
-  <si>
-    <t>progressStatus</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.progressStatus</t>
-  </si>
-  <si>
     <t>ResearchStudy.progressStatus.state</t>
   </si>
   <si>
     <t>state</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.progressStatus.state</t>
-  </si>
-  <si>
     <t>ResearchStudy.progressStatus.actual</t>
   </si>
   <si>
     <t>actual</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.progressStatus.actual</t>
-  </si>
-  <si>
     <t>ResearchStudy.progressStatus.period</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.progressStatus.period</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.recruitment</t>
-  </si>
-  <si>
     <t>ResearchStudy.recruitment.targetNumber</t>
   </si>
   <si>
     <t>targetNumber</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.recruitment.targetNumber</t>
-  </si>
-  <si>
     <t>ResearchStudy.recruitment.actualNumber</t>
   </si>
   <si>
     <t>actualNumber</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.recruitment.actualNumber</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.comparisonGroup</t>
-  </si>
-  <si>
-    <t>ResearchStudy.comparisonGroup.linkId</t>
-  </si>
-  <si>
-    <t>linkId</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.comparisonGroup.linkId</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.comparisonGroup.name</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.comparisonGroup.type</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.comparisonGroup.description</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.objective</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.objective.name</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.objective.type</t>
-  </si>
-  <si>
-    <t>ResearchStudy.objective.description</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.objective.description</t>
-  </si>
-  <si>
-    <t>ResearchStudy.outcomeMeasure</t>
-  </si>
-  <si>
-    <t>outcomeMeasure</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.outcomeMeasure</t>
-  </si>
-  <si>
     <t>ResearchStudy.outcomeMeasure.name</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.outcomeMeasure.name</t>
-  </si>
-  <si>
     <t>ResearchStudy.outcomeMeasure.type</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.outcomeMeasure.type</t>
-  </si>
-  <si>
     <t>ResearchStudy.outcomeMeasure.description</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.outcomeMeasure.description</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/extensions/ImplementationGuide/hl7.fhir.uv.extensions</t>
+    <t>http://hl7.org/fhir/extensions/ImplementationGuide/hl7.fhir.uv.extensions|5.2.0</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/alternate-reference</t>
@@ -805,60 +740,58 @@
       <c r="A9" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="B9" t="s" s="2">
-        <v>17</v>
-      </c>
+      <c r="B9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>18</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>20</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>22</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>26</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>28</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -876,437 +809,437 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
         <v>30</v>
       </c>
-      <c r="C1" t="s" s="1">
-        <v>31</v>
-      </c>
       <c r="D1" t="s" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="C2" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="C2" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>34</v>
-      </c>
       <c r="E2" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="B3" t="s" s="2">
-        <v>36</v>
-      </c>
       <c r="C3" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="B4" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="C4" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="B5" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="C5" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="B6" t="s" s="2">
-        <v>43</v>
-      </c>
       <c r="C6" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="B7" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="C7" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="B8" t="s" s="2">
-        <v>47</v>
-      </c>
       <c r="C8" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="B9" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="C9" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="B10" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="C10" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="B11" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="C11" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="B12" t="s" s="2">
-        <v>55</v>
-      </c>
       <c r="C12" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="C13" t="s" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="B14" t="s" s="2">
-        <v>60</v>
-      </c>
       <c r="C14" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="B15" t="s" s="2">
-        <v>62</v>
-      </c>
       <c r="C15" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>63</v>
       </c>
-      <c r="B16" t="s" s="2">
-        <v>64</v>
-      </c>
       <c r="C16" t="s" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="B17" t="s" s="2">
-        <v>66</v>
-      </c>
       <c r="C17" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>67</v>
       </c>
-      <c r="B18" t="s" s="2">
-        <v>68</v>
-      </c>
       <c r="C18" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="B19" t="s" s="2">
-        <v>70</v>
-      </c>
       <c r="C19" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="B20" t="s" s="2">
-        <v>72</v>
-      </c>
       <c r="C20" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="B21" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="C21" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="B22" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="C22" t="s" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="B23" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="C23" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="B24" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="C24" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="B25" t="s" s="2">
+      <c r="C25" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="B26" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="B26" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="C26" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="B27" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="C27" t="s" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="B28" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="B28" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="C28" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="B29" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="B29" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="C29" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="B31" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="B31" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="C31" t="s" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -1318,7 +1251,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1326,107 +1259,107 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
         <v>30</v>
       </c>
-      <c r="C1" t="s" s="1">
-        <v>31</v>
-      </c>
       <c r="D1" t="s" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="B2" t="s" s="2">
-        <v>33</v>
-      </c>
       <c r="C2" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="B3" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="C3" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="D3" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="C4" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="D5" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="B6" t="s" s="2">
+      <c r="C6" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="D6" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="B7" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="C7" t="s" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s" s="2">
         <v>110</v>
@@ -1435,73 +1368,73 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="C8" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="D8" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="D9" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="D9" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="D11" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>121</v>
@@ -1516,7 +1449,7 @@
         <v>123</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>124</v>
@@ -1531,7 +1464,7 @@
         <v>126</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>127</v>
@@ -1540,378 +1473,63 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="D15" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="D15" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="D16" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="C16" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="D16" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="D17" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="D17" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="D18" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="B18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="D18" t="s" s="2">
-        <v>137</v>
-      </c>
       <c r="E18" s="2"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="D19" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="D20" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="D21" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="D22" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="D23" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="D24" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="D25" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="D26" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D27" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="D28" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D29" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="C30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D30" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D31" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D32" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D33" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="C34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D34" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="C35" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="D35" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="C36" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="D36" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="D37" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="C38" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="D38" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="D39" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="E39" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1919,6 +1537,261 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="D14" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="D15" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="D16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1928,155 +1801,155 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
         <v>30</v>
       </c>
-      <c r="C1" t="s" s="1">
-        <v>31</v>
-      </c>
       <c r="D1" t="s" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="B2" t="s" s="2">
-        <v>33</v>
-      </c>
       <c r="C2" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="B3" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="C3" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="B5" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="B5" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="C5" t="s" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="E10" s="2"/>
     </row>
